--- a/InstaExt/docs/TestScenario_results/InstaExt_TestScenario_Ver1.00_sprint6.xlsx
+++ b/InstaExt/docs/TestScenario_results/InstaExt_TestScenario_Ver1.00_sprint6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sagano/GitHub/InstaExt/InstaExt/docs/TestScenario_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13C58C62-3D32-6944-BDE2-7FE4FF9D3805}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375EAE48-E363-DE4B-90EF-47E23C77DA5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29100" yWindow="-2080" windowWidth="25600" windowHeight="19100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29100" yWindow="-2080" windowWidth="25600" windowHeight="19100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'E インスタ連携'!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="117">
   <si>
     <t>Pass</t>
   </si>
@@ -1296,6 +1295,16 @@
     </rPh>
     <rPh sb="17" eb="19">
       <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>livePhoto/HDR写真でも確認済</t>
+    <rPh sb="13" eb="15">
+      <t>シャシンモ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>カクニn</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1985,6 +1994,18 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1995,18 +2016,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3207,7 +3216,7 @@
   </sheetPr>
   <dimension ref="B2:IT65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="125" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -3240,10 +3249,10 @@
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="2:254" ht="31" customHeight="1">
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="92"/>
+      <c r="C4" s="96"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="53"/>
@@ -3252,10 +3261,10 @@
       <c r="I4" s="54"/>
     </row>
     <row r="5" spans="2:254" ht="18.5" customHeight="1">
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="98" t="s">
         <v>1</v>
       </c>
       <c r="IO5" s="2"/>
@@ -3266,8 +3275,8 @@
       <c r="IT5" s="2"/>
     </row>
     <row r="6" spans="2:254" ht="18.5" customHeight="1">
-      <c r="B6" s="93"/>
-      <c r="C6" s="94"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="98"/>
       <c r="IO6" s="2"/>
       <c r="IP6" s="2"/>
       <c r="IQ6" s="2"/>
@@ -3440,11 +3449,11 @@
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="2:254" ht="31" customHeight="1">
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -3757,10 +3766,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:255" s="2" customFormat="1" ht="31" customHeight="1">
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="92"/>
+      <c r="C2" s="96"/>
       <c r="D2" s="86"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -4018,7 +4027,7 @@
       <c r="B3" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="95">
+      <c r="C3" s="91">
         <v>42791</v>
       </c>
       <c r="D3" s="76"/>
@@ -4278,7 +4287,7 @@
       <c r="B4" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="92" t="s">
         <v>104</v>
       </c>
       <c r="D4" s="76"/>
@@ -4538,7 +4547,7 @@
       <c r="B5" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="97" t="s">
+      <c r="C5" s="93" t="s">
         <v>105</v>
       </c>
       <c r="D5" s="76"/>
@@ -4798,7 +4807,7 @@
       <c r="B6" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="97" t="s">
+      <c r="C6" s="93" t="s">
         <v>106</v>
       </c>
       <c r="D6" s="76"/>
@@ -5567,10 +5576,10 @@
       <c r="IU8" s="1"/>
     </row>
     <row r="9" spans="2:255" s="2" customFormat="1" ht="31" customHeight="1">
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="92"/>
+      <c r="C9" s="96"/>
       <c r="D9" s="86"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -9573,10 +9582,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C003A1-8513-024C-B26C-674BCF165883}">
   <dimension ref="A1:II13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D52" sqref="D52"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="14" customHeight="1"/>
@@ -9652,7 +9661,9 @@
       <c r="D4" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="E4" s="79"/>
+      <c r="E4" s="79" t="s">
+        <v>116</v>
+      </c>
       <c r="F4" s="47"/>
       <c r="G4" s="24"/>
       <c r="J4" s="64"/>
@@ -9915,7 +9926,7 @@
       <c r="E6" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="F6" s="98" t="s">
+      <c r="F6" s="94" t="s">
         <v>77</v>
       </c>
       <c r="G6" s="52"/>
@@ -10437,6 +10448,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010011413CAA16A37D49A8C4990F18D5EA04" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="7048b29f7793b0893d85a3a028ae46be">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2d83e1cc-3847-45d1-abfe-e12d40493662" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ee6d26c52c623cb58a8349d9455cd1cc" ns2:_="">
     <xsd:import namespace="2d83e1cc-3847-45d1-abfe-e12d40493662"/>
@@ -10592,22 +10618,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13771C21-2C37-46D6-AA08-DE0657A1DD9B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3A72AC8-3F0F-42C8-981A-47138537A1BE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BAEE9F7-5FF5-4A68-BE98-8AEA182F7158}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10623,21 +10651,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3A72AC8-3F0F-42C8-981A-47138537A1BE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13771C21-2C37-46D6-AA08-DE0657A1DD9B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>